--- a/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
+++ b/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B40" s="65">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="B54" s="65">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="B91" s="65">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="B143" s="65">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="B147" s="65">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148">
